--- a/EmotionLinks.xlsx
+++ b/EmotionLinks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12210" tabRatio="365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>angry</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>E:\songs_roshni\Major Lazer - Be Together (feat. Wild Belle) (1).mp3</t>
+  </si>
+  <si>
+    <t>disgust</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\New folder\02-the_traveling_song.mp3</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\New folder\Coldplay - Up and Up.mp3</t>
+  </si>
+  <si>
+    <t>contempt</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\New folder\champagne showers.mp3</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\Desktop\New folder\coldplay Paradise.mp3</t>
   </si>
 </sst>
 </file>
@@ -395,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -403,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,9 +439,13 @@
     <col min="2" max="2" width="77.85546875" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
     <col min="4" max="4" width="70.140625" customWidth="1"/>
+    <col min="5" max="5" width="66.5703125" customWidth="1"/>
+    <col min="6" max="6" width="66" customWidth="1"/>
+    <col min="7" max="7" width="67.140625" customWidth="1"/>
+    <col min="8" max="8" width="63.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,8 +458,20 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -443,6 +483,18 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/EmotionLinks.xlsx
+++ b/EmotionLinks.xlsx
@@ -33,40 +33,40 @@
     <t>neutral</t>
   </si>
   <si>
-    <t>E:\songs_roshni\Kala Chashma - Full Video Baar Baar Dekho.mp3</t>
-  </si>
-  <si>
-    <t>E:\songs_roshni\Ed Sheeran - Perfect.mp3</t>
-  </si>
-  <si>
-    <t>E:\songs_roshni\Ed Sheeran - Shape Of You.mp3</t>
-  </si>
-  <si>
-    <t>E:\songs_roshni\Major Lazer - Be Together (feat. Wild Belle) (1).mp3</t>
-  </si>
-  <si>
     <t>disgust</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Desktop\New folder\02-the_traveling_song.mp3</t>
-  </si>
-  <si>
     <t>surprise</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Desktop\New folder\Coldplay - Up and Up.mp3</t>
-  </si>
-  <si>
     <t>contempt</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Desktop\New folder\champagne showers.mp3</t>
-  </si>
-  <si>
     <t>fear</t>
   </si>
   <si>
-    <t>C:\Users\Administrator\Desktop\New folder\coldplay Paradise.mp3</t>
+    <t>E:\songs\Eminem - Loose yourself.mp3</t>
+  </si>
+  <si>
+    <t>E:\songs\Pharell Williams-Happy.mp3</t>
+  </si>
+  <si>
+    <t>E:\songs\Linkin park-What I've done.mp3</t>
+  </si>
+  <si>
+    <t>E:\songs\Major Lazer - Lean on.mp3</t>
+  </si>
+  <si>
+    <t>E:\songs\02-the_traveling_song.mp3</t>
+  </si>
+  <si>
+    <t>E:\songs\Coldplay - paradise.mp3</t>
+  </si>
+  <si>
+    <t>E:\songs\Saints are coming.mp3</t>
+  </si>
+  <si>
+    <t>E:\songs\Bring me to life.mp3</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,7 +430,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -459,39 +459,39 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
